--- a/Samples/Configs/ListSample.xlsx
+++ b/Samples/Configs/ListSample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="7875"/>
@@ -14,8 +14,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这是批注, 暂时批注只能写在这一行上面</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,11 +115,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>intarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booldata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1;s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1;s2;s3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个字段不是ID将会以List形式数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.1;2.3</t>
+  </si>
+  <si>
+    <t>3.1;3.2;3.4</t>
+  </si>
+  <si>
+    <t>浮点数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>floatdata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intarray</t>
+    <t>整形数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,83 +236,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>booldata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1;2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1;3.2;3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s1;s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s1;s2;s3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个字段不是ID将会以List形式数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListID</t>
+    <t>stringdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str2</t>
+  </si>
+  <si>
+    <t>str3</t>
+  </si>
+  <si>
+    <t>ID空会报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +276,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -316,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -350,6 +441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,28 +617,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39.375" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -555,21 +648,30 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -578,19 +680,28 @@
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -601,19 +712,28 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -624,19 +744,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -647,19 +776,28 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -670,19 +808,28 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -693,39 +840,91 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G7">
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
